--- a/content_joomla/structure_page_tai_lieu_joomla.xlsx
+++ b/content_joomla/structure_page_tai_lieu_joomla.xlsx
@@ -4,18 +4,70 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="tài liệu joomla" sheetId="1" r:id="rId1"/>
+    <sheet name="Sttasheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="tài liệu joomla" sheetId="1" r:id="rId2"/>
+    <sheet name="tài liệu joomla (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>tự học joomla</t>
+  </si>
+  <si>
+    <t>http://quochoc.vn/course/preview/tu-hoc-thiet-ke-web-voi-joomla</t>
+  </si>
+  <si>
+    <t>Similar</t>
+  </si>
+  <si>
+    <t>Tự học thiết Kế Web Với Joomla</t>
+  </si>
+  <si>
+    <t>&lt;li class="active"&gt;Tự học thiết Kế Web Với Joomla&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; Tự học thiết Kế Web Với Joomla &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>&lt;td&gt; &lt;p&gt;&lt;strong&gt;Nắm vững kiến thức về Joomla&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Tự xây dựng các website chuyên nghiệp bằng Joomla&lt;/strong&gt;&lt;/p&gt; &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>Nắm vững kiến thức về Joomla Tự xây dựng các website chuyên nghiệp bằng Joomla</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,8 +82,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="19"/>
+      <color theme="0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -41,6 +123,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -54,10 +154,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -65,8 +166,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,307 +489,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:Q22"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:Q22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/content_joomla/structure_page_tai_lieu_joomla.xlsx
+++ b/content_joomla/structure_page_tai_lieu_joomla.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sttasheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="tài liệu joomla" sheetId="1" r:id="rId2"/>
-    <sheet name="tài liệu joomla (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="tự học joomla" sheetId="1" r:id="rId1"/>
+    <sheet name="tự học joomla online" sheetId="3" r:id="rId2"/>
+    <sheet name="tài liệu joomla cơ bản" sheetId="4" r:id="rId3"/>
+    <sheet name="hướng dẫn cài đặt joomla" sheetId="5" r:id="rId4"/>
+    <sheet name="tài liệu thiết kế web joomla" sheetId="6" r:id="rId5"/>
+    <sheet name="giáo trình joomla" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -61,6 +64,165 @@
   </si>
   <si>
     <t>Nắm vững kiến thức về Joomla Tự xây dựng các website chuyên nghiệp bằng Joomla</t>
+  </si>
+  <si>
+    <t>tự học joomla online</t>
+  </si>
+  <si>
+    <t>https://forum.joomla.org/viewtopic.php?t=726495</t>
+  </si>
+  <si>
+    <t>Thiết kế web với Joomla! v2.5</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="topic-title"&gt;&lt;a href="./viewtopic.php?f=207&amp;amp;t=726495&amp;amp;sid=fb6478e3ad71ec9c51c4e7f908e60da1"&gt;Thiết kế web với Joomla! v2.5&lt;/a&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>&lt;h3 class="first"&gt;&lt;img src="./images/icons/misc/solved.gif" width="20" height="20" alt=""&gt; &lt;a href="#p2833274"&gt;Thiết kế web với Joomla! v2.5&lt;/a&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Thiết kế web với Joomla! v2.5&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>tài liệu joomla cơ bản</t>
+  </si>
+  <si>
+    <t>https://forum.joomla.org/viewtopic.php?t=839792</t>
+  </si>
+  <si>
+    <t>Xin tài liệu Joomla Tiếng Việt</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="topic-title"&gt;&lt;a href="./viewtopic.php?f=203&amp;amp;t=839792"&gt;Xin tài liệu Joomla Tiếng Việt&lt;/a&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3 class="first"&gt;&lt;a href="#p3155391"&gt;Xin tài liệu Joomla Tiếng Việt&lt;/a&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>http://tailieuhay.com.vn/cong-nghe-thong-tin-2/huong-dan-thiet-ke-website-voi-joomla-3-x-de-dang.html</t>
+  </si>
+  <si>
+    <t>Hướng dẫn thiết kế Website với Joomla 3.x dễ dàng</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="entry-title"&gt;&lt;a href="http://tailieuhay.com.vn/cong-nghe-thong-tin-2/huong-dan-thiet-ke-website-voi-joomla-3-x-de-dang.html"&gt;&lt;b&gt;Hướng dẫn thiết kế Website với Joomla 3.x dễ dàng&lt;/b&gt;&lt;/a&gt;&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>https://forum.joomla.org/viewtopic.php?t=846964</t>
+  </si>
+  <si>
+    <t>Học joomla cơ bản mất bao lâu?</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="topic-title"&gt;&lt;a href="./viewtopic.php?f=214&amp;amp;t=846964"&gt;Học joomla cơ bản mất bao lâu?&lt;/a&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3 class="first"&gt;&lt;a href="#p3178891"&gt;Học joomla cơ bản mất bao lâu?&lt;/a&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Hướng dẫn cách cài đặt Joomla! 2.5 trên localhost</t>
+  </si>
+  <si>
+    <t>http://www.buaxua.vn/Thiet-ke-Web/Huong-dan-cach-cai-dat-Joomla-2.5-tren-localhost.html</t>
+  </si>
+  <si>
+    <t>&lt;h1 title="Hướng dẫn cách cài đặt Joomla! 2.5 trên localhost"&gt;&lt;span class="title_img"&gt;&lt;img src="/images/buaxua_logo.png" alt="Hướng dẫn cách làm - Hình ảnh minh họa - Phim hướng dẫn" title="Hướng dẫn cách làm - Hình ảnh minh họa - Phim hướng dẫn"&gt;&lt;/span&gt;Hướng dẫn cách cài đặt Joomla! 2.5 trên localhost&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="/Thiet-ke-Web/Huong-dan-cach-cai-dat-Joomla-2.5-tren-localhost.html" class="contentpagetitle" title="Hướng dẫn cách cài đặt Joomla! 2.5 trên localhost"&gt;Hướng dẫn cách cài đặt Joomla! 2.5 trên localhost&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Tải gói cài đặt Joomla! 2.5.x</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Tải gói cài đặt Joomla! 2.5.x&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>Joomla! Pro Support</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a href="/Dich-vu-thiet-ke-web-huong-dan-cai-dat-su-dung-Joomla.html" target="_blank" title="Joomla! Pro Support" style="text-decoration: none;"&gt;Joomla! Pro Support&lt;/a&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>http://vandon.com.vn/joomla-vi/18391-huong-dan-cai-dat-joomla-3-tren-localhost</t>
+  </si>
+  <si>
+    <t>Hướng dẫn cài đặt Joomla 3 trên Localhost</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; &lt;a href="/joomla-vi/18391-huong-dan-cai-dat-joomla-3-tren-localhost"&gt; Hướng dẫn cài đặt Joomla 3 trên Localhost&lt;/a&gt; &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Hướng dẫn cài đặt Joomla 3 trên Localhost Trang 2 - Cài đặt Joomla 3.4.1 Trang 3 - Xem tiếp quá trình cài đặt Joomla 3.4.1 Tất cả các trang</t>
+  </si>
+  <si>
+    <t>&lt;ul class="nav nav-tabs nav-stacked"&gt; &lt;li class="toclink active"&gt; &lt;a href="/joomla-vi/18391-huong-dan-cai-dat-joomla-3-tren-localhost?showall=" class="toclink active"&gt;Hướng dẫn cài đặt Joomla 3 trên Localhost&lt;/a&gt; &lt;/li&gt; &lt;li&gt; &lt;a href="/joomla-vi/18391-huong-dan-cai-dat-joomla-3-tren-localhost?showall=&amp;amp;start=1" class="toclink"&gt;Trang 2 - Cài đặt Joomla 3.4.1&lt;/a&gt; &lt;/li&gt; &lt;li&gt; &lt;a href="/joomla-vi/18391-huong-dan-cai-dat-joomla-3-tren-localhost?showall=&amp;amp;start=2" class="toclink"&gt;Trang 3 - Xem tiếp quá trình cài đặt Joomla 3.4.1&lt;/a&gt; &lt;/li&gt; &lt;li&gt; &lt;a href="/joomla-vi/18391-huong-dan-cai-dat-joomla-3-tren-localhost?showall=1" class="toclink"&gt; Tất cả các trang&lt;/a&gt; &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>Hướng dẫn chèn Comment Facebook vào Joomla</t>
+  </si>
+  <si>
+    <t>&lt;li&gt; &lt;a href="/joomla-vi/18406-huong-dan-chen-comment-facebook-vao-joomla"&gt; Hướng dẫn chèn Comment Facebook vào Joomla&lt;/a&gt; &lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>http://joomla.edu.vn/</t>
+  </si>
+  <si>
+    <t>Thiết kế web Joomla, tài liệu Joomla tiếng Việt</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="home-h1"&gt;Thiết kế web Joomla, tài liệu Joomla tiếng Việt&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>http://tailieuhoctap.vn/chi-tiet-sach/180-nganh-cong-nghe-thong-tin/lap-trinh-web/778350-giao-trinh-joomla-co-ban</t>
+  </si>
+  <si>
+    <t>GIÁO TRÌNH JOOMLA CƠ BẢN</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; Giáo trình joomla cơ bản &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Giáo trình joomla cơ bản</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="padding-bottom:20px" class="mo_ta_tai_lieu"&gt;Giáo trình joomla cơ bản&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>http://sinhvienit.net/forum/tags.php?tag=gi%C3%A1o+tr%C3%ACnh+joomla+ti%E1%BA%BFng+vi%E1%BB%87t</t>
+  </si>
+  <si>
+    <t>giáo trình joomla tiếng việt</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; &lt;strong&gt;giáo trình joomla tiếng việt&lt;/strong&gt; &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Ebooks Joomla tiếng Việt</t>
+  </si>
+  <si>
+    <t>&lt;h3 class="searchtitle"&gt; &lt;a class="title" href="ebooks-joomla-tieng-viet.225691.html" id="thread_title_225691" title="Joomla! được viết bằng ngôn ngữ PHP và kết nối tới cơ sở dữ liệu MySQL, cho phép người sử dụng có thể dễ dàng xuất bản các nội dung của họ lên Internet hoặc Intranet. Joomla! có các đặc tính cơ bản..."&gt;Ebooks Joomla tiếng Việt&lt;/a&gt; &lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Sách hướng dẫn thiết kế template Joomla tiếng việt</t>
+  </si>
+  <si>
+    <t>&lt;h3 class="searchtitle"&gt; &lt;a class="title" href="sach-huong-dan-thiet-ke-template-joomla-tieng-viet.13680.html" id="thread_title_13680" title="Với Joomla, việc bạn có thể tạo 1 trang web trong vòng vài tiếng đồng hồ, hay nhanh hơn nữa là vài phút là điểu hoàn toàn không khó. Tuy vậy, để tạo được 1 trang web có giao diện, bộ cánh ưng ý lại..."&gt;Sách hướng dẫn thiết kế template Joomla tiếng việt&lt;/a&gt; &lt;/h3&gt;</t>
   </si>
 </sst>
 </file>
@@ -158,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -178,10 +340,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,15 +654,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -505,38 +908,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="52" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -553,7 +956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -566,11 +969,11 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -585,7 +988,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>3</v>
       </c>
@@ -600,7 +1003,267 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -609,7 +1272,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -618,7 +1281,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -627,7 +1290,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>7</v>
       </c>
@@ -636,7 +1299,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -645,7 +1308,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>9</v>
       </c>
@@ -654,7 +1317,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>10</v>
       </c>
@@ -663,7 +1326,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>11</v>
       </c>
@@ -672,7 +1335,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>12</v>
       </c>
@@ -681,7 +1344,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>13</v>
       </c>
@@ -690,7 +1353,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>14</v>
       </c>
@@ -699,7 +1362,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>15</v>
       </c>
@@ -708,7 +1371,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>16</v>
       </c>
@@ -717,7 +1380,515 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>17</v>
       </c>
@@ -738,42 +1909,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="52" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -790,72 +1961,86 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -864,7 +2049,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>7</v>
       </c>
@@ -873,7 +2058,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -882,7 +2067,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>9</v>
       </c>
@@ -891,7 +2076,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>10</v>
       </c>
@@ -900,7 +2085,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>11</v>
       </c>
@@ -909,7 +2094,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>12</v>
       </c>
@@ -918,7 +2103,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>13</v>
       </c>
@@ -927,7 +2112,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>14</v>
       </c>
@@ -936,7 +2121,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>15</v>
       </c>
@@ -945,7 +2130,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>16</v>
       </c>
@@ -954,7 +2139,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>17</v>
       </c>
@@ -968,7 +2153,7 @@
     <mergeCell ref="B3:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>

--- a/content_joomla/structure_page_tai_lieu_joomla.xlsx
+++ b/content_joomla/structure_page_tai_lieu_joomla.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="tự học joomla" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,18 @@
     <sheet name="hướng dẫn cài đặt joomla" sheetId="5" r:id="rId4"/>
     <sheet name="tài liệu thiết kế web joomla" sheetId="6" r:id="rId5"/>
     <sheet name="giáo trình joomla" sheetId="7" r:id="rId6"/>
+    <sheet name="học joomla tại nhà" sheetId="9" r:id="rId7"/>
+    <sheet name="tài liệu joomla miễn phí" sheetId="10" r:id="rId8"/>
+    <sheet name="tài liệu joomla nâng cao" sheetId="11" r:id="rId9"/>
+    <sheet name="giáo trình joomla (5)" sheetId="12" r:id="rId10"/>
+    <sheet name="giáo trình joomla (6)" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="100">
   <si>
     <t>#</t>
   </si>
@@ -223,6 +228,104 @@
   </si>
   <si>
     <t>&lt;h3 class="searchtitle"&gt; &lt;a class="title" href="sach-huong-dan-thiet-ke-template-joomla-tieng-viet.13680.html" id="thread_title_13680" title="Với Joomla, việc bạn có thể tạo 1 trang web trong vòng vài tiếng đồng hồ, hay nhanh hơn nữa là vài phút là điểu hoàn toàn không khó. Tuy vậy, để tạo được 1 trang web có giao diện, bộ cánh ưng ý lại..."&gt;Sách hướng dẫn thiết kế template Joomla tiếng việt&lt;/a&gt; &lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>https://hocthietkeweb.net.vn/khoa-hoc-thiet-ke-web-joomla-cho-doanh-nghiep-khong-can-hoc-code.html</t>
+  </si>
+  <si>
+    <t>Khóa Học Thiết kế web Joomla cho Doanh nghiệp (không cần học Code)</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="post-title" itemprop="name"&gt; &lt;a href="https://hocthietkeweb.net.vn/khoa-hoc-thiet-ke-web-joomla-cho-doanh-nghiep-khong-can-hoc-code.html" title="Khóa Học Thiết kế web Joomla cho Doanh nghiệp (không cần học Code)" rel="bookmark"&gt; Khóa Học Thiết kế web Joomla cho Doanh nghiệp (không cần học Code)&lt;/a&gt;&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Học Thiết kế web Joomla&lt;/strong&gt; tại Hoc Thiet Ke Web, các bạn sẽ được Tôi &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;Chỉ dậy tận tay&lt;/strong&gt;&lt;/span&gt; – &lt;span style="color: #ff0000;"&gt;&lt;strong&gt;Làm được ngay trên lớp&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Học Thiết kế web Joomla tại Hoc Thiet Ke Web, các bạn sẽ được Tôi Chỉ dậy tận tay – Làm được ngay trên lớp</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>http://tailieuhoctap.vn/chi-tiet-sach/180-nganh-cong-nghe-thong-tin/lap-trinh-web/778987-tu-thiet-ke-website-that-de-dang-voi-joomla</t>
+  </si>
+  <si>
+    <t>TỰ THIẾT KẾ WEBSITE THẬT DỄ DÀNG VỚI JOOMLA</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; Tự thiết kế website thật dễ dàng với Joomla &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a title="joomla" href="/component/easytagcloud/joomla"&gt;joomla&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>joomla</t>
+  </si>
+  <si>
+    <t>https://forum.joomla.org/viewtopic.php?t=714320</t>
+  </si>
+  <si>
+    <t>khóa học thiết kế web joomla 2.5 miễn phí</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="topic-title"&gt;&lt;a href="./viewtopic.php?f=207&amp;amp;t=714320&amp;amp;sid=43e2a810f5f8a8c1d9eb9b43e07c541e"&gt;khóa học thiết kế web joomla 2.5 miễn phí&lt;/a&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3 class="first"&gt;&lt;a href="#p2796943"&gt;khóa học thiết kế web joomla 2.5 miễn phí&lt;/a&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>https://download.com.vn/joomla-1-5-x/download</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="detail-title"&gt; &lt;img src="//i.dowload.vn/data/image/2016/10/22/joomla-32.png" class="software-icon"&gt; &lt;span class="sw-name" itemprop="name" content="Joomla"&gt; Joomla &lt;/span&gt; &lt;em&gt;3.6.3&lt;/em&gt; &lt;i&gt;Hệ thống quản trị CMS miễn phí&lt;/i&gt; &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Joomla 3.6.3 Hệ thống quản trị CMS miễn phí</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://googleads.g.doubleclick.net/pagead/ads?client=ca-pub-9275417305531302&amp;amp;format=fpkc_al_lp&amp;amp;output=html&amp;amp;h=90&amp;amp;slotname=7466861681&amp;amp;adk=4090173763&amp;amp;adf=3257167134&amp;amp;w=295&amp;amp;lmt=1492410488&amp;amp;loeid=389613001%2C137237720&amp;amp;flash=0&amp;amp;url=https%3A%2F%2Fdownload.com.vn%2Fjoomla-1-5-x%2Fdownload&amp;amp;wgl=1&amp;amp;dt=1492410476886&amp;amp;bpp=6&amp;amp;bdt=392&amp;amp;fdt=473&amp;amp;idt=474&amp;amp;shv=r20170410&amp;amp;cbv=r20170110&amp;amp;saldr=aa&amp;amp;prev_fmts=295x90_0ads_al&amp;amp;prev_slotnames=6853305280&amp;amp;correlator=5067271919068&amp;amp;frm=20&amp;amp;ga_vid=*&amp;amp;ga_sid=*&amp;amp;ga_hid=*&amp;amp;ga_fc=0&amp;amp;pv=1&amp;amp;iag=3&amp;amp;icsg=2&amp;amp;nhd=1&amp;amp;dssz=2&amp;amp;mdo=0&amp;amp;mso=0&amp;amp;u_tz=420&amp;amp;u_his=1&amp;amp;u_java=0&amp;amp;u_h=768&amp;amp;u_w=1366&amp;amp;u_ah=728&amp;amp;u_aw=1366&amp;amp;u_cd=24&amp;amp;u_nplug=4&amp;amp;u_nmime=5&amp;amp;biw=1349&amp;amp;bih=662&amp;amp;ref=https%3A%2F%2Fwww.google.com.vn%2F&amp;amp;rx=0&amp;amp;eae=0&amp;amp;fc=16&amp;amp;brdim=0%2C0%2C0%2C0%2C1366%2C0%2C1366%2C728%2C1366%2C662&amp;amp;vis=2&amp;amp;rsz=%7C%7CoeEr%7C&amp;amp;abl=CS&amp;amp;ppjl=u&amp;amp;pfx=0&amp;amp;fu=144&amp;amp;bc=1&amp;amp;ifi=3&amp;amp;xpc=MUsaH7HfZj&amp;amp;p=https%3A//download.com.vn&amp;amp;dtd=478&amp;amp;rl_rc=true&amp;amp;ad_type=text&amp;amp;oe=UTF8&amp;amp;kw_type=radlink&amp;amp;hl=vi&amp;amp;kw0=T%E1%BA%A3i+download+mi%E1%BB%85n+ph%C3%AD&amp;amp;kw1=Joomla+css&amp;amp;kw2=Joomla+web&amp;amp;okw=Joomla+css&amp;amp;rt=ChBY9GB9AAXEwgqWNEL3CI5mEgpKb29tbGEgY3NzGgh3orMtLQ68qSgBMAJSEwiduL2q7qrTAhWFOpYKHQYDBLF4AQ" class="grid-link" target="_top" id="ala2"&gt;&lt;span class="atp"&gt;&lt;/span&gt;Joomla css&lt;span class="ats"&gt;&lt;/span&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Joomla css</t>
+  </si>
+  <si>
+    <t>Joomla - Hệ thống quản trị CMS miễn phí</t>
+  </si>
+  <si>
+    <t>&lt;h2 id="toc1"&gt; Joomla - Hệ thống quản trị CMS miễn phí &lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>http://sinhvienit.net/forum/tai-lieu-huong-dan-joomla-nang-cao-2-5.226864.html</t>
+  </si>
+  <si>
+    <t>Tài liệu hướng dẫn joomla nâng cao 2.5</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; &lt;a href="tai-lieu-huong-dan-joomla-nang-cao-2-5.226864.html" title="Tài liệu hướng dẫn joomla nâng cao 2.5"&gt;Tài liệu hướng dẫn joomla nâng cao 2.5&lt;/a&gt; &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="posttitle icon"&gt;
+   Tài liệu hướng dẫn joomla nâng cao 2.5
+  &lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;font color="#000080"&gt;Tài liệu hướng dẫn joomla nâng cao 2.5&lt;/font&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>http://doc.edu.vn/tai-lieu/bai-tap-lap-trinh-web-nang-cao-voi-joomla-59020/</t>
+  </si>
+  <si>
+    <t>Bài tập Lập trình web nâng cao với joomla</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Bài tập Lập trình web nâng cao với joomla&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Bài tập Lập trình web nâng cao với joomla&lt;/strong&gt;</t>
   </si>
 </sst>
 </file>
@@ -343,11 +446,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -656,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -672,20 +775,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -764,7 +867,7 @@
       <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -904,11 +1007,513 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -924,20 +1529,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1016,7 +1621,7 @@
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1166,7 +1771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1182,20 +1787,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1421,20 +2026,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1513,7 +2118,7 @@
       <c r="E9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
@@ -1668,7 +2273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1684,20 +2289,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1729,7 +2334,7 @@
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1776,7 +2381,7 @@
       <c r="E9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1913,7 +2518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1929,20 +2534,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -2023,7 +2628,7 @@
       <c r="E9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
@@ -2158,4 +2763,754 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
 </file>
--- a/content_joomla/structure_page_tai_lieu_joomla.xlsx
+++ b/content_joomla/structure_page_tai_lieu_joomla.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="tự học joomla" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,15 @@
     <sheet name="học joomla tại nhà" sheetId="9" r:id="rId7"/>
     <sheet name="tài liệu joomla miễn phí" sheetId="10" r:id="rId8"/>
     <sheet name="tài liệu joomla nâng cao" sheetId="11" r:id="rId9"/>
-    <sheet name="giáo trình joomla (5)" sheetId="12" r:id="rId10"/>
-    <sheet name="giáo trình joomla (6)" sheetId="13" r:id="rId11"/>
+    <sheet name="thiết kế web joomla chuyên nghi" sheetId="12" r:id="rId10"/>
+    <sheet name="cách sử dụng joomla" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="129">
   <si>
     <t>#</t>
   </si>
@@ -326,6 +326,93 @@
   </si>
   <si>
     <t>&lt;strong&gt;Bài tập Lập trình web nâng cao với joomla&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>tài liệu joomla nâng cao</t>
+  </si>
+  <si>
+    <t>tài liệu joomla miễn phí</t>
+  </si>
+  <si>
+    <t>học joomla tại nhà</t>
+  </si>
+  <si>
+    <t>giáo trình joomla</t>
+  </si>
+  <si>
+    <t>tài liệu thiết kế web joomla</t>
+  </si>
+  <si>
+    <t>hướng dẫn cài đặt joomla</t>
+  </si>
+  <si>
+    <t>http://redweb.vn/joomla/thiet-ke-web-joomla-lon-nhat-viet-nam</t>
+  </si>
+  <si>
+    <t>Thiết kế website Joomla - Lớn nhất Việt Nam</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="redcontent"&gt; &lt;span class="reditem_editor reditem_editor_2"&gt; &lt;p&gt;&lt;span class="red"&gt;&lt;/span&gt;Thiết kế website Joomla - Lớn nhất Việt Nam&lt;/p&gt;&lt;/span&gt; &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Sử dụng Joomla có cần giấy phép và tiền bản quyền?</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;&lt;span id="result_box" lang="vi"&gt;Sử dụng Joomla có cần giấy phép và tiền bản quyền&lt;span&gt;?&lt;/span&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>Joomla có thể đáp ứng mọi nhu cầu cần cho website?</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Joomla có thể đáp ứng mọi nhu cầu cần cho website?&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>http://thietkewebthudo.net/tin-tuc/105-thiet-ke-website-joomla</t>
+  </si>
+  <si>
+    <t>Thiết Kế Website Joomla Theo yêu cầu</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; &lt;a href="/tin-tuc/105-thiet-ke-website-joomla" class="contentpagetitle"&gt;&lt;cufon class="cufon cufon-canvas" alt=" " style="width: 6px; height: 24px;"&gt;&lt;canvas width="20" height="28" style="width: 20px; height: 28px; top: -5px; left: -1px;"&gt;&lt;/canvas&gt;&lt;cufontext&gt; &lt;/cufontext&gt;&lt;/cufon&gt;&lt;cufon class="cufon cufon-canvas" alt="Thiết " style="width: 51px; height: 24px;"&gt;&lt;canvas width="65" height="28" style="width: 65px; height: 28px; top: -5px; left: -1px;"&gt;&lt;/canvas&gt;&lt;cufontext&gt;Thiết &lt;/cufontext&gt;&lt;/cufon&gt;&lt;cufon class="cufon cufon-canvas" alt="Kế " style="width: 26px; height: 24px;"&gt;&lt;canvas width="40" height="28" style="width: 40px; height: 28px; top: -5px; left: -1px;"&gt;&lt;/canvas&gt;&lt;cufontext&gt;Kế &lt;/cufontext&gt;&lt;/cufon&gt;&lt;cufon class="cufon cufon-canvas" alt="Website " style="width: 79px; height: 24px;"&gt;&lt;canvas width="93" height="28" style="width: 93px; height: 28px; top: -5px; left: -1px;"&gt;&lt;/canvas&gt;&lt;cufontext&gt;Website &lt;/cufontext&gt;&lt;/cufon&gt;&lt;cufon class="cufon cufon-canvas" alt="Joomla " style="width: 71px; height: 24px;"&gt;&lt;canvas width="85" height="28" style="width: 85px; height: 28px; top: -5px; left: -1px;"&gt;&lt;/canvas&gt;&lt;cufontext&gt;Joomla &lt;/cufontext&gt;&lt;/cufon&gt;&lt;cufon class="cufon cufon-canvas" alt="Theo " style="width: 48px; height: 24px;"&gt;&lt;canvas width="62" height="28" style="width: 62px; height: 28px; top: -5px; left: -1px;"&gt;&lt;/canvas&gt;&lt;cufontext&gt;Theo &lt;/cufontext&gt;&lt;/cufon&gt;&lt;cufon class="cufon cufon-canvas" alt="yêu " style="width: 39px; height: 24px;"&gt;&lt;canvas width="53" height="28" style="width: 53px; height: 28px; top: -5px; left: -1px;"&gt;&lt;/canvas&gt;&lt;cufontext&gt;yêu &lt;/cufontext&gt;&lt;/cufon&gt;&lt;cufon class="cufon cufon-canvas" alt="cầu" style="width: 33px; height: 24px;"&gt;&lt;canvas width="41" height="28" style="width: 41px; height: 28px; top: -5px; left: -1px;"&gt;&lt;/canvas&gt;&lt;cufontext&gt;cầu&lt;/cufontext&gt;&lt;/cufon&gt;&lt;/a&gt; &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Tại sao chọn thiết kế website Joomla.</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="margin-top: 15px; margin-bottom: 15px; color: #6c6c6c;"&gt;&lt;span style="font-size: 14pt; font-family: arial, helvetica, sans-serif; color: #ff6600;"&gt;Tại sao chọn thiết kế website Joomla.&lt;/span&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>thiết kế web joomla chuyên nghiệp</t>
+  </si>
+  <si>
+    <t>cách sử dụng joomla</t>
+  </si>
+  <si>
+    <t>https://forum.joomla.org/viewtopic.php?t=81836</t>
+  </si>
+  <si>
+    <t>Sách hướng dẫn sử dụng Joomla! (En version) - Building Website with Joomla</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="topic-title"&gt;&lt;a href="./viewtopic.php?f=203&amp;amp;t=81836&amp;amp;sid=3d85f2e2fc26da09f545ea143661be7c"&gt;Sách hướng dẫn sử dụng Joomla! (En version) - Building Website with Joomla&lt;/a&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3 class="first"&gt;&lt;a href="#p419511"&gt;Sách hướng dẫn sử dụng Joomla! (En version) - Building Website with Joomla&lt;/a&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>http://sinhvienit.net/forum/huong-dan-su-dung-joomla.5046.html</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; &lt;a href="huong-dan-su-dung-joomla.5046.html" title="Hướng dẫn sử dụng Joomla"&gt;Hướng dẫn sử dụng Joomla&lt;/a&gt; &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng Joomla</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="posttitle icon"&gt; Hướng dẫn sử dụng Joomla &lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hướng dẫn sử dụng Joomla </t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1099,7 @@
   <dimension ref="B3:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1115,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1059,7 +1146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -1067,16 +1154,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1084,10 +1171,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -1096,45 +1183,45 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="2:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -1251,10 +1338,11 @@
     <mergeCell ref="B3:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1262,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1367,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1310,21 +1398,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1332,13 +1420,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -1350,43 +1438,37 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1502,10 +1584,11 @@
     <mergeCell ref="B3:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1513,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2010,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2027,7 +2110,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2273,8 +2356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2290,7 +2373,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2518,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2535,7 +2618,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2769,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2786,7 +2869,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3015,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3032,7 +3115,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3267,8 +3350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3284,7 +3367,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>

--- a/content_joomla/structure_page_tai_lieu_joomla.xlsx
+++ b/content_joomla/structure_page_tai_lieu_joomla.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="tự học joomla" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,18 @@
     <sheet name="tài liệu joomla nâng cao" sheetId="11" r:id="rId9"/>
     <sheet name="thiết kế web joomla chuyên nghi" sheetId="12" r:id="rId10"/>
     <sheet name="cách sử dụng joomla" sheetId="13" r:id="rId11"/>
+    <sheet name="các bước cài đặt joomla" sheetId="14" r:id="rId12"/>
+    <sheet name="tuyển tập tài liệu joomla" sheetId="15" r:id="rId13"/>
+    <sheet name="tài liệu joomla hay nhất" sheetId="16" r:id="rId14"/>
+    <sheet name="giáo trình joomla cơ bản" sheetId="17" r:id="rId15"/>
+    <sheet name="giáo trình joomla tiếng việt" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="154">
   <si>
     <t>#</t>
   </si>
@@ -413,6 +418,81 @@
   </si>
   <si>
     <t xml:space="preserve">Hướng dẫn sử dụng Joomla </t>
+  </si>
+  <si>
+    <t>các bước cài đặt joomla</t>
+  </si>
+  <si>
+    <t>tuyển tập tài liệu joomla</t>
+  </si>
+  <si>
+    <t>http://tailieu.vn/tag/tu-hoc-joomla.html</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Tự học Joomla&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Tự học Joomla</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a class="titga" href="http://tailieu.vn/doc/tu-hoc-joomla-huong-dan-cai-joomla-3-4-5-1791716.html"&gt;Tự học Joomla: Hướng dẫn cài Joomla 3.4.5&lt;/a&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Tự học Joomla: Hướng dẫn cài Joomla 3.4.5</t>
+  </si>
+  <si>
+    <t>http://tailieu.vn/tag/joomla-3-0.html</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Joomla 3.0&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Joomla 3.0</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a class="titga" href="http://tailieu.vn/doc/joomla-3-0-co-gi-moi-what-s-new-in-joomla-3-0--1316782.html"&gt;Joomla 3.0 có gì mới ? (what's new in joomla 3.0)&lt;/a&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Joomla 3.0 có gì mới ? (what's new in joomla 3.0)</t>
+  </si>
+  <si>
+    <t>tài liệu joomla hay nhất</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="topic-title"&gt;&lt;a href="./viewtopic.php?f=203&amp;amp;t=839792&amp;amp;sid=bce9deee61edb94de37b2a6e9190c5e0"&gt;Xin tài liệu Joomla Tiếng Việt&lt;/a&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>giáo trình joomla cơ bản</t>
+  </si>
+  <si>
+    <t>http://sinhvienit.net/forum/ebooks-joomla-tieng-viet.225691.html</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; &lt;a href="ebooks-joomla-tieng-viet.225691.html" title="Ebooks Joomla tiếng Việt"&gt;Ebooks Joomla tiếng Việt&lt;/a&gt; &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="posttitle icon"&gt; Ebooks Joomla tiếng Việt &lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; Joomla cms&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Joomla cms</t>
+  </si>
+  <si>
+    <t>https://forum.joomla.org/viewforum.php?f=203</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="forum-title"&gt;&lt;a href="./viewforum.php?f=203"&gt;Joomla Tiếng Việt&lt;/a&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>Joomla Tiếng Việt</t>
+  </si>
+  <si>
+    <t>&lt;a href="./viewtopic.php?f=203&amp;amp;t=918837" class="topictitle"&gt;Joomla làm được những gì?&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Joomla làm được những gì?</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1350,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1586,6 +1666,1259 @@
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1"/>
     <hyperlink ref="F8" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
@@ -2093,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2852,7 +4185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3098,7 +4431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3350,7 +4683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
